--- a/DATASETS/Test_Random.xlsx
+++ b/DATASETS/Test_Random.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_Random.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="1624">
   <si>
     <t>14vNE9iqS5eGAL6OogiN8g</t>
   </si>
@@ -4879,6 +4879,18 @@
   </si>
   <si>
     <t>ê³µí—ˆí•´ Empty</t>
+  </si>
+  <si>
+    <t>song_name</t>
+  </si>
+  <si>
+    <t>artists</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>song_title_en</t>
   </si>
 </sst>
 </file>
@@ -5250,62 +5262,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="A347" sqref="A347:XFD347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1" t="s">
         <v>213</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>219</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>220</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>221</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>222</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>223</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>224</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>225</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>226</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>227</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="U1" t="s">
         <v>229</v>
       </c>
     </row>
